--- a/AVGO.xlsx
+++ b/AVGO.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Martin Shkreli\code\models\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Martin Shkreli - DL\models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{97BD652F-2DE8-44BF-A5B3-44D5C53616D8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3CC33E8C-3DCA-43CF-86B3-E3D682734F95}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28995" yWindow="1755" windowWidth="25965" windowHeight="16125" xr2:uid="{70329CC5-8756-4BA4-A5C1-E709DAADAB52}"/>
+    <workbookView xWindow="50490" yWindow="680" windowWidth="24340" windowHeight="15680" xr2:uid="{70329CC5-8756-4BA4-A5C1-E709DAADAB52}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -303,7 +303,7 @@
     <t>Net Cash</t>
   </si>
   <si>
-    <t>Q424</t>
+    <t>Q325</t>
   </si>
 </sst>
 </file>
@@ -412,16 +412,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>40462</xdr:colOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>44431</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:rowOff>11906</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>40462</xdr:colOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>44431</xdr:colOff>
       <xdr:row>69</xdr:row>
-      <xdr:rowOff>125452</xdr:rowOff>
+      <xdr:rowOff>137358</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -436,8 +436,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7454087" y="0"/>
-          <a:ext cx="0" cy="10944265"/>
+          <a:off x="8616931" y="11906"/>
+          <a:ext cx="0" cy="11103015"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -833,7 +833,7 @@
   <dimension ref="B2:K17"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="K3" sqref="K3"/>
+      <selection activeCell="J3" sqref="J3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
@@ -843,7 +843,7 @@
         <v>0</v>
       </c>
       <c r="J2" s="1">
-        <v>236</v>
+        <v>376</v>
       </c>
     </row>
     <row r="3" spans="2:11" x14ac:dyDescent="0.25">
@@ -854,7 +854,7 @@
         <v>1</v>
       </c>
       <c r="J3" s="2">
-        <v>4836</v>
+        <v>4860</v>
       </c>
       <c r="K3" s="3" t="s">
         <v>88</v>
@@ -869,7 +869,7 @@
       </c>
       <c r="J4" s="5">
         <f>+J2*J3</f>
-        <v>1141296</v>
+        <v>1827360</v>
       </c>
     </row>
     <row r="5" spans="2:11" x14ac:dyDescent="0.25">
@@ -880,7 +880,7 @@
         <v>3</v>
       </c>
       <c r="J5" s="2">
-        <v>9307</v>
+        <v>10718</v>
       </c>
       <c r="K5" s="3" t="s">
         <v>88</v>
@@ -894,7 +894,7 @@
         <v>4</v>
       </c>
       <c r="J6" s="2">
-        <v>66579</v>
+        <v>64229</v>
       </c>
       <c r="K6" s="3" t="s">
         <v>88</v>
@@ -909,7 +909,7 @@
       </c>
       <c r="J7" s="2">
         <f>+J4-J5+J6</f>
-        <v>1198568</v>
+        <v>1880871</v>
       </c>
     </row>
     <row r="8" spans="2:11" x14ac:dyDescent="0.25">
@@ -973,10 +973,10 @@
   <dimension ref="A1:X71"/>
   <sheetViews>
     <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="3" topLeftCell="F28" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="L21" sqref="L21"/>
+      <selection pane="bottomRight" activeCell="N42" sqref="N42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
@@ -1095,12 +1095,10 @@
         <v>45691</v>
       </c>
       <c r="M3" s="14">
-        <f>+I3+365</f>
-        <v>45782</v>
+        <v>45781</v>
       </c>
       <c r="N3" s="14">
-        <f>+J3+365</f>
-        <v>45873</v>
+        <v>45872</v>
       </c>
       <c r="O3" s="14">
         <f>+K3+365</f>
@@ -1270,8 +1268,12 @@
       <c r="L9" s="10">
         <v>14916</v>
       </c>
-      <c r="M9" s="12"/>
-      <c r="N9" s="12"/>
+      <c r="M9" s="10">
+        <v>15004</v>
+      </c>
+      <c r="N9" s="10">
+        <v>15952</v>
+      </c>
       <c r="O9" s="12"/>
       <c r="P9" s="12"/>
       <c r="Q9" s="12"/>
@@ -1329,6 +1331,12 @@
       <c r="L10" s="8">
         <v>3273</v>
       </c>
+      <c r="M10" s="8">
+        <v>3296</v>
+      </c>
+      <c r="N10" s="8">
+        <v>3704</v>
+      </c>
       <c r="T10" s="8">
         <v>6555</v>
       </c>
@@ -1388,8 +1396,14 @@
         <f>+L9-L10</f>
         <v>11643</v>
       </c>
-      <c r="M11" s="8"/>
-      <c r="N11" s="8"/>
+      <c r="M11" s="8">
+        <f t="shared" ref="M11" si="1">+M9-M10</f>
+        <v>11708</v>
+      </c>
+      <c r="N11" s="8">
+        <f>+N9-N10</f>
+        <v>12248</v>
+      </c>
       <c r="O11" s="8"/>
       <c r="P11" s="8"/>
       <c r="Q11" s="8"/>
@@ -1447,6 +1461,12 @@
       <c r="L12" s="8">
         <v>2253</v>
       </c>
+      <c r="M12" s="8">
+        <v>2693</v>
+      </c>
+      <c r="N12" s="8">
+        <v>3050</v>
+      </c>
       <c r="T12" s="8">
         <v>4854</v>
       </c>
@@ -1496,6 +1516,12 @@
       <c r="L13" s="8">
         <v>949</v>
       </c>
+      <c r="M13" s="8">
+        <v>1083</v>
+      </c>
+      <c r="N13" s="8">
+        <v>1072</v>
+      </c>
       <c r="T13" s="8">
         <v>1347</v>
       </c>
@@ -1516,51 +1542,59 @@
         <v>18</v>
       </c>
       <c r="C14" s="8">
-        <f t="shared" ref="C14:L14" si="1">+C12+C13</f>
+        <f t="shared" ref="C14:L14" si="2">+C12+C13</f>
         <v>1567</v>
       </c>
       <c r="D14" s="8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1543</v>
       </c>
       <c r="E14" s="8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1750</v>
       </c>
       <c r="F14" s="8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1746</v>
       </c>
       <c r="G14" s="8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1806</v>
       </c>
       <c r="H14" s="8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>3880</v>
       </c>
       <c r="I14" s="8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>3692</v>
       </c>
       <c r="J14" s="8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>3453</v>
       </c>
       <c r="K14" s="8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>3244</v>
       </c>
       <c r="L14" s="8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>3202</v>
       </c>
+      <c r="M14" s="8">
+        <f t="shared" ref="M14" si="3">+M12+M13</f>
+        <v>3776</v>
+      </c>
+      <c r="N14" s="8">
+        <f t="shared" ref="M14:N14" si="4">+N12+N13</f>
+        <v>4122</v>
+      </c>
       <c r="T14" s="8">
-        <f t="shared" ref="T14:U14" si="2">+T13+T12</f>
+        <f t="shared" ref="T14:U14" si="5">+T13+T12</f>
         <v>6201</v>
       </c>
       <c r="U14" s="8">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>6301</v>
       </c>
       <c r="V14" s="8">
@@ -1577,51 +1611,59 @@
         <v>20</v>
       </c>
       <c r="C15" s="8">
-        <f t="shared" ref="C15:L15" si="3">+C11-C14</f>
+        <f t="shared" ref="C15:L15" si="6">+C11-C14</f>
         <v>5065</v>
       </c>
       <c r="D15" s="8">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>4998</v>
       </c>
       <c r="E15" s="8">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>4806</v>
       </c>
       <c r="F15" s="8">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>4858</v>
       </c>
       <c r="G15" s="8">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>5040</v>
       </c>
       <c r="H15" s="8">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>4967</v>
       </c>
       <c r="I15" s="8">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>5653</v>
       </c>
       <c r="J15" s="8">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>6486</v>
       </c>
       <c r="K15" s="8">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>7411</v>
       </c>
       <c r="L15" s="8">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>8441</v>
       </c>
+      <c r="M15" s="8">
+        <f t="shared" ref="M15" si="7">+M11-M14</f>
+        <v>7932</v>
+      </c>
+      <c r="N15" s="8">
+        <f t="shared" ref="M15:N15" si="8">+N11-N14</f>
+        <v>8126</v>
+      </c>
       <c r="T15" s="8">
-        <f t="shared" ref="T15:U15" si="4">+T11-T14</f>
+        <f t="shared" ref="T15:U15" si="9">+T11-T14</f>
         <v>14694</v>
       </c>
       <c r="U15" s="8">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>19273</v>
       </c>
       <c r="V15" s="8">
@@ -1677,6 +1719,14 @@
         <f>-873+103</f>
         <v>-770</v>
       </c>
+      <c r="M16" s="3">
+        <f>-769+25</f>
+        <v>-744</v>
+      </c>
+      <c r="N16" s="3">
+        <f>-807+205</f>
+        <v>-602</v>
+      </c>
       <c r="T16" s="8">
         <f>-1885+131</f>
         <v>-1754</v>
@@ -1699,44 +1749,52 @@
         <v>23</v>
       </c>
       <c r="C17" s="8">
-        <f t="shared" ref="C17:L17" si="5">+C15+C16</f>
+        <f t="shared" ref="C17:L17" si="10">+C15+C16</f>
         <v>4699</v>
       </c>
       <c r="D17" s="8">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>4449</v>
       </c>
       <c r="E17" s="8">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>4514</v>
       </c>
       <c r="F17" s="8">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>4576</v>
       </c>
       <c r="G17" s="8">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>4767</v>
       </c>
       <c r="H17" s="8">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>4226</v>
       </c>
       <c r="I17" s="8">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>4693</v>
       </c>
       <c r="J17" s="8">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>5504</v>
       </c>
       <c r="K17" s="8">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>6547</v>
       </c>
       <c r="L17" s="8">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>7671</v>
+      </c>
+      <c r="M17" s="8">
+        <f t="shared" ref="M17" si="11">+M15+M16</f>
+        <v>7188</v>
+      </c>
+      <c r="N17" s="8">
+        <f t="shared" ref="M17:N17" si="12">+N15+N16</f>
+        <v>7524</v>
       </c>
       <c r="T17" s="8">
         <f>+T15+T16</f>
@@ -1792,8 +1850,12 @@
         <f>-12+1286</f>
         <v>1274</v>
       </c>
-      <c r="M18" s="8"/>
-      <c r="N18" s="8"/>
+      <c r="M18" s="8">
+        <v>120</v>
+      </c>
+      <c r="N18" s="8">
+        <v>1145</v>
+      </c>
       <c r="O18" s="8"/>
       <c r="P18" s="8"/>
       <c r="Q18" s="8"/>
@@ -1822,44 +1884,52 @@
         <v>25</v>
       </c>
       <c r="C19" s="8">
-        <f t="shared" ref="C19:L19" si="6">+C17-C18</f>
+        <f t="shared" ref="C19:L19" si="13">+C17-C18</f>
         <v>4438</v>
       </c>
       <c r="D19" s="8">
-        <f t="shared" si="6"/>
+        <f t="shared" si="13"/>
         <v>4383</v>
       </c>
       <c r="E19" s="8">
-        <f t="shared" si="6"/>
+        <f t="shared" si="13"/>
         <v>4279</v>
       </c>
       <c r="F19" s="8">
-        <f t="shared" si="6"/>
+        <f t="shared" si="13"/>
         <v>4305</v>
       </c>
       <c r="G19" s="8">
-        <f t="shared" si="6"/>
+        <f t="shared" si="13"/>
         <v>4324</v>
       </c>
       <c r="H19" s="8">
-        <f t="shared" si="6"/>
+        <f t="shared" si="13"/>
         <v>3423</v>
       </c>
       <c r="I19" s="8">
-        <f t="shared" si="6"/>
+        <f t="shared" si="13"/>
         <v>4809</v>
       </c>
       <c r="J19" s="8">
-        <f t="shared" si="6"/>
+        <f t="shared" si="13"/>
         <v>1266</v>
       </c>
       <c r="K19" s="8">
-        <f t="shared" si="6"/>
+        <f t="shared" si="13"/>
         <v>5483</v>
       </c>
       <c r="L19" s="8">
-        <f t="shared" si="6"/>
+        <f t="shared" si="13"/>
         <v>6397</v>
+      </c>
+      <c r="M19" s="8">
+        <f t="shared" ref="M19" si="14">+M17-M18</f>
+        <v>7068</v>
+      </c>
+      <c r="N19" s="8">
+        <f t="shared" ref="M19:N19" si="15">+N17-N18</f>
+        <v>6379</v>
       </c>
       <c r="T19" s="10">
         <f>+T17-T18</f>
@@ -1883,44 +1953,52 @@
         <v>75</v>
       </c>
       <c r="C20" s="11">
-        <f t="shared" ref="C20:L20" si="7">+C19/C21</f>
+        <f t="shared" ref="C20:L20" si="16">+C19/C21</f>
         <v>1.0344988344988344</v>
       </c>
       <c r="D20" s="11">
-        <f t="shared" si="7"/>
+        <f t="shared" si="16"/>
         <v>1.0216783216783216</v>
       </c>
       <c r="E20" s="11">
-        <f t="shared" si="7"/>
+        <f t="shared" si="16"/>
         <v>1.0021077283372366</v>
       </c>
       <c r="F20" s="11">
-        <f t="shared" si="7"/>
+        <f t="shared" si="16"/>
         <v>1.0081967213114753</v>
       </c>
       <c r="G20" s="11">
-        <f t="shared" si="7"/>
+        <f t="shared" si="16"/>
         <v>1.0126463700234192</v>
       </c>
       <c r="H20" s="11">
-        <f t="shared" si="7"/>
+        <f t="shared" si="16"/>
         <v>0.73297644539614559</v>
       </c>
       <c r="I20" s="11">
-        <f t="shared" si="7"/>
+        <f t="shared" si="16"/>
         <v>1.0018750000000001</v>
       </c>
       <c r="J20" s="11">
-        <f t="shared" si="7"/>
+        <f t="shared" si="16"/>
         <v>0.27149903495603689</v>
       </c>
       <c r="K20" s="11">
-        <f t="shared" si="7"/>
+        <f t="shared" si="16"/>
         <v>1.1356669428334714</v>
       </c>
       <c r="L20" s="11">
-        <f t="shared" si="7"/>
+        <f t="shared" si="16"/>
         <v>1.3227874276261373</v>
+      </c>
+      <c r="M20" s="11">
+        <f t="shared" ref="M20" si="17">+M19/M21</f>
+        <v>1.4645669291338583</v>
+      </c>
+      <c r="N20" s="11">
+        <f t="shared" ref="M20:N20" si="18">+N19/N21</f>
+        <v>1.312551440329218</v>
       </c>
       <c r="T20" s="11">
         <f>+T19/T21</f>
@@ -1974,6 +2052,12 @@
       <c r="L21" s="8">
         <v>4836</v>
       </c>
+      <c r="M21" s="8">
+        <v>4826</v>
+      </c>
+      <c r="N21" s="8">
+        <v>4860</v>
+      </c>
       <c r="T21" s="8">
         <v>4290</v>
       </c>
@@ -1994,31 +2078,37 @@
         <v>12</v>
       </c>
       <c r="G25" s="9">
-        <f t="shared" ref="G25:L25" si="8">+G9/C9-1</f>
+        <f t="shared" ref="G25:L25" si="19">+G9/C9-1</f>
         <v>4.0873460246360516E-2</v>
       </c>
       <c r="H25" s="9">
-        <f t="shared" si="8"/>
+        <f t="shared" si="19"/>
         <v>0.34167134043746494</v>
       </c>
       <c r="I25" s="9">
-        <f t="shared" si="8"/>
+        <f t="shared" si="19"/>
         <v>0.42986373525707089</v>
       </c>
       <c r="J25" s="9">
-        <f t="shared" si="8"/>
+        <f t="shared" si="19"/>
         <v>0.47273546642631814</v>
       </c>
       <c r="K25" s="9">
-        <f t="shared" si="8"/>
+        <f t="shared" si="19"/>
         <v>0.51199569661108124</v>
       </c>
       <c r="L25" s="9">
-        <f t="shared" si="8"/>
+        <f t="shared" si="19"/>
         <v>0.24705292199648854</v>
       </c>
-      <c r="M25" s="9"/>
-      <c r="N25" s="9"/>
+      <c r="M25" s="9">
+        <f t="shared" ref="M25" si="20">+M9/I9-1</f>
+        <v>0.20156963241771453</v>
+      </c>
+      <c r="N25" s="9">
+        <f t="shared" ref="N25" si="21">+N9/J9-1</f>
+        <v>0.2203182374541004</v>
+      </c>
       <c r="O25" s="9"/>
       <c r="P25" s="9"/>
       <c r="Q25" s="9"/>
@@ -2041,23 +2131,23 @@
         <v>15</v>
       </c>
       <c r="C26" s="9">
-        <f t="shared" ref="C26:G26" si="9">+C11/C9</f>
+        <f t="shared" ref="C26:G26" si="22">+C11/C9</f>
         <v>0.7426651735722285</v>
       </c>
       <c r="D26" s="9">
-        <f t="shared" si="9"/>
+        <f t="shared" si="22"/>
         <v>0.7337072349971957</v>
       </c>
       <c r="E26" s="9">
-        <f t="shared" si="9"/>
+        <f t="shared" si="22"/>
         <v>0.75071567617084622</v>
       </c>
       <c r="F26" s="9">
-        <f t="shared" si="9"/>
+        <f t="shared" si="22"/>
         <v>0.74402884182063989</v>
       </c>
       <c r="G26" s="9">
-        <f t="shared" si="9"/>
+        <f t="shared" si="22"/>
         <v>0.7365250134480904</v>
       </c>
       <c r="H26" s="9">
@@ -2080,6 +2170,14 @@
         <f>+L11/L9</f>
         <v>0.78057119871279168</v>
       </c>
+      <c r="M26" s="9">
+        <f t="shared" ref="M26:N26" si="23">+M11/M9</f>
+        <v>0.78032524660090641</v>
+      </c>
+      <c r="N26" s="9">
+        <f t="shared" si="23"/>
+        <v>0.7678034102306921</v>
+      </c>
       <c r="T26" s="9">
         <f>+T11/T9</f>
         <v>0.76120218579234977</v>
@@ -2102,23 +2200,23 @@
         <v>21</v>
       </c>
       <c r="C27" s="9">
-        <f t="shared" ref="C27:G27" si="10">+C15/C9</f>
+        <f t="shared" ref="C27:G27" si="24">+C15/C9</f>
         <v>0.56718924972004481</v>
       </c>
       <c r="D27" s="9">
-        <f t="shared" si="10"/>
+        <f t="shared" si="24"/>
         <v>0.56062815479528882</v>
       </c>
       <c r="E27" s="9">
-        <f t="shared" si="10"/>
+        <f t="shared" si="24"/>
         <v>0.55032634833390592</v>
       </c>
       <c r="F27" s="9">
-        <f t="shared" si="10"/>
+        <f t="shared" si="24"/>
         <v>0.54731861198738174</v>
       </c>
       <c r="G27" s="9">
-        <f t="shared" si="10"/>
+        <f t="shared" si="24"/>
         <v>0.54222700376546529</v>
       </c>
       <c r="H27" s="9">
@@ -2141,6 +2239,14 @@
         <f>+L15/L9</f>
         <v>0.56590238669884685</v>
       </c>
+      <c r="M27" s="9">
+        <f t="shared" ref="M27:N27" si="25">+M15/M9</f>
+        <v>0.52865902426019729</v>
+      </c>
+      <c r="N27" s="9">
+        <f t="shared" si="25"/>
+        <v>0.50940320962888663</v>
+      </c>
       <c r="T27" s="9">
         <f>+T15/T9</f>
         <v>0.53530054644808744</v>
@@ -2165,6 +2271,14 @@
       <c r="L30" s="8">
         <f>+L31-L42</f>
         <v>-57272</v>
+      </c>
+      <c r="M30" s="8">
+        <f>+M31-M42</f>
+        <v>0</v>
+      </c>
+      <c r="N30" s="8">
+        <f>+N31-N42</f>
+        <v>-53511</v>
       </c>
     </row>
     <row r="31" spans="2:24" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -2190,7 +2304,9 @@
         <v>9307</v>
       </c>
       <c r="M31" s="8"/>
-      <c r="N31" s="8"/>
+      <c r="N31" s="8">
+        <v>10718</v>
+      </c>
       <c r="O31" s="8"/>
       <c r="P31" s="8"/>
       <c r="Q31" s="8"/>
@@ -2225,7 +2341,9 @@
         <v>4955</v>
       </c>
       <c r="M32" s="8"/>
-      <c r="N32" s="8"/>
+      <c r="N32" s="8">
+        <v>6494</v>
+      </c>
       <c r="O32" s="8"/>
       <c r="P32" s="8"/>
       <c r="Q32" s="8"/>
@@ -2260,7 +2378,9 @@
         <v>1908</v>
       </c>
       <c r="M33" s="8"/>
-      <c r="N33" s="8"/>
+      <c r="N33" s="8">
+        <v>2180</v>
+      </c>
       <c r="O33" s="8"/>
       <c r="P33" s="8"/>
       <c r="Q33" s="8"/>
@@ -2295,7 +2415,9 @@
         <v>4820</v>
       </c>
       <c r="M34" s="8"/>
-      <c r="N34" s="8"/>
+      <c r="N34" s="8">
+        <v>5606</v>
+      </c>
       <c r="O34" s="8"/>
       <c r="P34" s="8"/>
       <c r="Q34" s="8"/>
@@ -2330,7 +2452,9 @@
         <v>2465</v>
       </c>
       <c r="M35" s="8"/>
-      <c r="N35" s="8"/>
+      <c r="N35" s="8">
+        <v>2451</v>
+      </c>
       <c r="O35" s="8"/>
       <c r="P35" s="8"/>
       <c r="Q35" s="8"/>
@@ -2369,7 +2493,10 @@
         <v>136454</v>
       </c>
       <c r="M36" s="8"/>
-      <c r="N36" s="8"/>
+      <c r="N36" s="8">
+        <f>97801+34344</f>
+        <v>132145</v>
+      </c>
       <c r="O36" s="8"/>
       <c r="P36" s="8"/>
       <c r="Q36" s="8"/>
@@ -2404,7 +2531,9 @@
         <v>5449</v>
       </c>
       <c r="M37" s="8"/>
-      <c r="N37" s="8"/>
+      <c r="N37" s="8">
+        <v>6027</v>
+      </c>
       <c r="O37" s="8"/>
       <c r="P37" s="8"/>
       <c r="Q37" s="8"/>
@@ -2445,8 +2574,14 @@
         <f>SUM(L31:L37)</f>
         <v>165358</v>
       </c>
-      <c r="M38" s="8"/>
-      <c r="N38" s="8"/>
+      <c r="M38" s="8">
+        <f>SUM(M31:M37)</f>
+        <v>0</v>
+      </c>
+      <c r="N38" s="8">
+        <f>SUM(N31:N37)</f>
+        <v>165621</v>
+      </c>
       <c r="O38" s="8"/>
       <c r="P38" s="8"/>
       <c r="Q38" s="8"/>
@@ -2505,7 +2640,9 @@
         <v>1905</v>
       </c>
       <c r="M40" s="8"/>
-      <c r="N40" s="8"/>
+      <c r="N40" s="8">
+        <v>1432</v>
+      </c>
       <c r="O40" s="8"/>
       <c r="P40" s="8"/>
       <c r="Q40" s="8"/>
@@ -2540,7 +2677,9 @@
         <v>922</v>
       </c>
       <c r="M41" s="8"/>
-      <c r="N41" s="8"/>
+      <c r="N41" s="8">
+        <v>1719</v>
+      </c>
       <c r="O41" s="8"/>
       <c r="P41" s="8"/>
       <c r="Q41" s="8"/>
@@ -2579,7 +2718,10 @@
         <v>66579</v>
       </c>
       <c r="M42" s="8"/>
-      <c r="N42" s="8"/>
+      <c r="N42" s="8">
+        <f>1399+62830</f>
+        <v>64229</v>
+      </c>
       <c r="O42" s="8"/>
       <c r="P42" s="8"/>
       <c r="Q42" s="8"/>
@@ -2614,7 +2756,9 @@
         <v>12430</v>
       </c>
       <c r="M43" s="8"/>
-      <c r="N43" s="8"/>
+      <c r="N43" s="8">
+        <v>12154</v>
+      </c>
       <c r="O43" s="8"/>
       <c r="P43" s="8"/>
       <c r="Q43" s="8"/>
@@ -2649,7 +2793,9 @@
         <v>13733</v>
       </c>
       <c r="M44" s="8"/>
-      <c r="N44" s="8"/>
+      <c r="N44" s="8">
+        <v>12810</v>
+      </c>
       <c r="O44" s="8"/>
       <c r="P44" s="8"/>
       <c r="Q44" s="8"/>
@@ -2684,7 +2830,9 @@
         <v>69789</v>
       </c>
       <c r="M45" s="8"/>
-      <c r="N45" s="8"/>
+      <c r="N45" s="8">
+        <v>73277</v>
+      </c>
       <c r="O45" s="8"/>
       <c r="P45" s="8"/>
       <c r="Q45" s="8"/>
@@ -2725,8 +2873,14 @@
         <f>SUM(L40:L45)</f>
         <v>165358</v>
       </c>
-      <c r="M46" s="8"/>
-      <c r="N46" s="8"/>
+      <c r="M46" s="8">
+        <f t="shared" ref="M46:N46" si="26">SUM(M40:M45)</f>
+        <v>0</v>
+      </c>
+      <c r="N46" s="8">
+        <f t="shared" si="26"/>
+        <v>165621</v>
+      </c>
       <c r="O46" s="8"/>
       <c r="P46" s="8"/>
       <c r="Q46" s="8"/>
@@ -2754,6 +2908,22 @@
         <f>+J19</f>
         <v>1266</v>
       </c>
+      <c r="K48" s="8">
+        <f>+K19</f>
+        <v>5483</v>
+      </c>
+      <c r="L48" s="8">
+        <f>+L19</f>
+        <v>6397</v>
+      </c>
+      <c r="M48" s="8">
+        <f>+M19</f>
+        <v>7068</v>
+      </c>
+      <c r="N48" s="8">
+        <f>+N19</f>
+        <v>6379</v>
+      </c>
     </row>
     <row r="49" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B49" t="s">
@@ -2769,6 +2939,14 @@
         <f>1571-I49-H49</f>
         <v>-1875</v>
       </c>
+      <c r="K49" s="8"/>
+      <c r="L49" s="8"/>
+      <c r="M49" s="8">
+        <v>4965</v>
+      </c>
+      <c r="N49" s="8">
+        <v>4140</v>
+      </c>
     </row>
     <row r="50" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B50" t="s">
@@ -2784,6 +2962,14 @@
         <f>6962-I50-H50</f>
         <v>2375</v>
       </c>
+      <c r="K50" s="8"/>
+      <c r="L50" s="8"/>
+      <c r="M50" s="8">
+        <v>2024</v>
+      </c>
+      <c r="N50" s="8">
+        <v>2060</v>
+      </c>
     </row>
     <row r="51" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B51" t="s">
@@ -2799,6 +2985,14 @@
         <f>437-I51-H51</f>
         <v>149</v>
       </c>
+      <c r="K51" s="8"/>
+      <c r="L51" s="8"/>
+      <c r="M51" s="8">
+        <v>142</v>
+      </c>
+      <c r="N51" s="8">
+        <v>142</v>
+      </c>
     </row>
     <row r="52" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B52" t="s">
@@ -2814,6 +3008,14 @@
         <f>4427-I52-H52</f>
         <v>1388</v>
       </c>
+      <c r="K52" s="8"/>
+      <c r="L52" s="8"/>
+      <c r="M52" s="8">
+        <v>1771</v>
+      </c>
+      <c r="N52" s="8">
+        <v>2322</v>
+      </c>
     </row>
     <row r="53" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B53" t="s">
@@ -2829,6 +3031,14 @@
         <f>2833-I53-H53</f>
         <v>3638</v>
       </c>
+      <c r="K53" s="8"/>
+      <c r="L53" s="8"/>
+      <c r="M53" s="8">
+        <v>-571</v>
+      </c>
+      <c r="N53" s="8">
+        <v>284</v>
+      </c>
     </row>
     <row r="54" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B54" t="s">
@@ -2844,6 +3054,14 @@
         <f>336-I54-H54</f>
         <v>115</v>
       </c>
+      <c r="K54" s="8"/>
+      <c r="L54" s="8"/>
+      <c r="M54" s="8">
+        <v>94</v>
+      </c>
+      <c r="N54" s="8">
+        <v>82</v>
+      </c>
     </row>
     <row r="55" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B55" t="s">
@@ -2859,6 +3077,15 @@
         <f>266+105-I55-H55</f>
         <v>241</v>
       </c>
+      <c r="K55" s="8"/>
+      <c r="L55" s="8"/>
+      <c r="M55" s="8">
+        <v>40</v>
+      </c>
+      <c r="N55" s="8">
+        <f>53-23</f>
+        <v>30</v>
+      </c>
     </row>
     <row r="56" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B56" t="s">
@@ -2876,6 +3103,16 @@
         <f>2078+16+206-118-3913-848-I56-H56</f>
         <v>-1068</v>
       </c>
+      <c r="K56" s="8"/>
+      <c r="L56" s="8"/>
+      <c r="M56" s="8">
+        <f>-590-109-613+287-55-830</f>
+        <v>-1910</v>
+      </c>
+      <c r="N56" s="8">
+        <f>-937-163+136+511-999-442</f>
+        <v>-1894</v>
+      </c>
     </row>
     <row r="57" spans="2:22" ht="13" x14ac:dyDescent="0.3">
       <c r="B57" t="s">
@@ -2892,6 +3129,22 @@
       <c r="J57" s="10">
         <f>SUM(J49:J56)</f>
         <v>4963</v>
+      </c>
+      <c r="K57" s="10">
+        <f>SUM(K49:K56)</f>
+        <v>0</v>
+      </c>
+      <c r="L57" s="10">
+        <f>SUM(L49:L56)</f>
+        <v>0</v>
+      </c>
+      <c r="M57" s="10">
+        <f>SUM(M49:M56)</f>
+        <v>6555</v>
+      </c>
+      <c r="N57" s="10">
+        <f>SUM(N49:N56)</f>
+        <v>7166</v>
       </c>
       <c r="T57" s="10">
         <v>13764</v>
